--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287134.9107094307</v>
+        <v>287095.224552737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.29513059</v>
+        <v>18601640.52608542</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386105</v>
+        <v>9135685.687344903</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5777945.371766753</v>
+        <v>5589994.749742932</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>232.3709968967547</v>
+        <v>172.701439531221</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8679560914088</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.80749487494576</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.0940071113353</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>47.37384610069657</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>101.5800624936542</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>119.0131614123038</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>149.4806488201263</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182444</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1375,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>15.68954022671276</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.67748875058538</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.44420510686474</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>274.948485106957</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>49.95246527349702</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>169.6356194967397</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>58.67748875058538</v>
+        <v>371.0037482136088</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>78.57177159354914</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2084,13 +2086,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>119.0131614123042</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>38.67187541878363</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474204</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>108.3705354224935</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914871</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>261.7620609868792</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>57.24387488545689</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399249</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>410.1290777754821</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>360.4937347088086</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>121.2482518332236</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031871</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3035,19 +3037,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.83300046414744</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>74.0316976127545</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3272,13 +3274,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>94.13968570244987</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>80.02531409275974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150112</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>213.3528967098531</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>371.0037482136088</v>
       </c>
       <c r="C38" t="n">
-        <v>389.5160285707929</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.9037564455519</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>36.12736168857082</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>158.7857770350095</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>288.0572761730713</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>25.13775189891257</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>60.0263160299658</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>61.33901800901318</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4195,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>204.3886642632436</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1867.421837588626</v>
+        <v>645.8448535523323</v>
       </c>
       <c r="C2" t="n">
-        <v>1867.421837588626</v>
+        <v>218.9441235656324</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.703658905035</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1100.603903091853</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091853</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="W2" t="n">
-        <v>1867.421837588626</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="X2" t="n">
-        <v>1867.421837588626</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="Y2" t="n">
-        <v>1867.421837588626</v>
+        <v>1065.693217843862</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>287.709308798102</v>
       </c>
       <c r="O3" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.8849779950629</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C4" t="n">
-        <v>545.8849779950629</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D4" t="n">
-        <v>382.5682051218336</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X4" t="n">
-        <v>772.2277463053208</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y4" t="n">
-        <v>545.8849779950629</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.839139109241</v>
+        <v>1192.559954376912</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.938409122541</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D5" t="n">
-        <v>1299.938409122541</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2017.745588713552</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2017.745588713552</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2017.745588713552</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2017.745588713552</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>2017.745588713552</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.573982417267</v>
+        <v>1612.408318668442</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>287.709308798102</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.4223778677166</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4498147466326</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4720,7 +4722,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4738,37 +4740,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>2177.058882663693</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V7" t="n">
-        <v>1895.347415271722</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.495011444235</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="X7" t="n">
-        <v>1377.93111489004</v>
+        <v>1420.451440016514</v>
       </c>
       <c r="Y7" t="n">
-        <v>1151.588346579782</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.726719052893</v>
+        <v>591.61426959383</v>
       </c>
       <c r="C8" t="n">
-        <v>1206.726719052893</v>
+        <v>164.7135396071301</v>
       </c>
       <c r="D8" t="n">
-        <v>1206.726719052893</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1969.553403971753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1612.063989098002</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.063989098002</v>
+        <v>1828.519902762722</v>
       </c>
       <c r="X8" t="n">
-        <v>1612.063989098002</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y8" t="n">
-        <v>1206.726719052893</v>
+        <v>1011.46263388536</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4957,7 +4959,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4984,25 +4986,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="Y10" t="n">
         <v>1317.84531628555</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>487.2469754669704</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>60.34624548027051</v>
       </c>
       <c r="D11" t="n">
-        <v>895.5993467119897</v>
+        <v>60.34624548027051</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6224068598473</v>
+        <v>60.34624548027051</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L11" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M11" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N11" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>1724.152608635863</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.911252462377</v>
+        <v>1312.43260980361</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.64106180522</v>
+        <v>907.0953397585005</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M12" t="n">
-        <v>866.8612493132769</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N12" t="n">
-        <v>866.8612493132769</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O12" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388.3325623957711</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>216.3599992746871</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T13" t="n">
-        <v>1884.153515691443</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U13" t="n">
-        <v>1603.969067191748</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.257599799776</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W13" t="n">
-        <v>1047.405195972289</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X13" t="n">
-        <v>804.8412994180946</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>578.4985311078367</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1172.417318383227</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="C14" t="n">
-        <v>745.5165883965271</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D14" t="n">
-        <v>322.2239675815274</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N14" t="n">
         <v>1674.245717477938</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.454216832581</v>
       </c>
       <c r="U14" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.454216832581</v>
       </c>
       <c r="V14" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.454216832581</v>
       </c>
       <c r="W14" t="n">
-        <v>2003.98568150701</v>
+        <v>2174.454216832581</v>
       </c>
       <c r="X14" t="n">
-        <v>1592.265682674757</v>
+        <v>1762.734218000328</v>
       </c>
       <c r="Y14" t="n">
-        <v>1592.265682674757</v>
+        <v>1357.396947955218</v>
       </c>
     </row>
     <row r="15">
@@ -5337,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L15" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M15" t="n">
-        <v>1424.973427259627</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N15" t="n">
-        <v>1424.973427259627</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O15" t="n">
-        <v>1424.973427259627</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P15" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q15" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.6159039117389</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>144.2667933089716</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>144.2667933089716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G16" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H16" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5455,31 +5457,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1811.436857207411</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1531.252408707716</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1249.540941315744</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>974.6885374882575</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>732.1246409340625</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>505.7818726238046</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5501,64 +5503,64 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M17" t="n">
-        <v>44.49822504924753</v>
+        <v>667.494702989317</v>
       </c>
       <c r="N17" t="n">
-        <v>549.9383681074144</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O17" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X17" t="n">
-        <v>2165.64106180522</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L18" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N18" t="n">
-        <v>323.6423572907505</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O18" t="n">
-        <v>874.3078922751886</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P18" t="n">
-        <v>1424.973427259627</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q18" t="n">
         <v>1771.166545545054</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>388.3325623957711</v>
+        <v>1040.787803719786</v>
       </c>
       <c r="C19" t="n">
-        <v>216.3599992746871</v>
+        <v>868.8152405987023</v>
       </c>
       <c r="D19" t="n">
-        <v>216.3599992746871</v>
+        <v>705.498467725473</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3599992746871</v>
+        <v>539.2902618783265</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>367.4284876528869</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5680,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5698,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T19" t="n">
-        <v>1884.153515691443</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U19" t="n">
-        <v>1603.969067191748</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.257599799776</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.405195972289</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="X19" t="n">
-        <v>804.8412994180946</v>
+        <v>1457.29654074211</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.4985311078367</v>
+        <v>1230.953772431852</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1367.317248714524</v>
+        <v>591.6142695938305</v>
       </c>
       <c r="C20" t="n">
-        <v>940.4165187278243</v>
+        <v>164.7135396071306</v>
       </c>
       <c r="D20" t="n">
-        <v>517.1238979128245</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E20" t="n">
-        <v>91.1469580606821</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>414.6879164545638</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>670.5873920849796</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>1315.132555351125</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M20" t="n">
-        <v>1315.132555351125</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N20" t="n">
-        <v>1959.677718617271</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>2604.222881883416</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X20" t="n">
-        <v>2192.502883051164</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.165613006054</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.2079486691235</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>501.7020451866283</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>397.8620867019134</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>293.1601529748506</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>199.5143226577547</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4605508753587</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>52.08445763766833</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J21" t="n">
-        <v>52.08445763766833</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>642.569384206008</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L21" t="n">
-        <v>642.569384206008</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M21" t="n">
-        <v>752.0814480892533</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N21" t="n">
-        <v>752.0814480892533</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O21" t="n">
-        <v>752.0814480892533</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P21" t="n">
-        <v>1396.626611355399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q21" t="n">
-        <v>1860.772088218178</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1779.447840779433</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1637.567905077111</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.799708996748</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1247.826570136014</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.305192969231</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>887.8278467358939</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>748.1349580891863</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>387.3737936319816</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>215.4012305108976</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>52.08445763766833</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>52.08445763766833</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>52.08445763766833</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>52.08445763766833</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>52.08445763766833</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5757858618263</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>336.1033870676636</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>690.7927083620843</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1081.978503332335</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.470014208371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1814.898142888134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.497354810035</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.45887173797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2015.323824257105</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.984476483005</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.800027983309</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V22" t="n">
-        <v>1210.088560591338</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="W22" t="n">
-        <v>935.2361567638507</v>
+        <v>1669.874400135193</v>
       </c>
       <c r="X22" t="n">
-        <v>692.6722602096557</v>
+        <v>1427.310503580998</v>
       </c>
       <c r="Y22" t="n">
-        <v>466.3294918993978</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.036107182457</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C23" t="n">
-        <v>2032.135377195757</v>
+        <v>966.4421593518935</v>
       </c>
       <c r="D23" t="n">
-        <v>1608.842756380758</v>
+        <v>543.1495385368937</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.865816528615</v>
+        <v>117.1725986847513</v>
       </c>
       <c r="F23" t="n">
-        <v>757.7416347180153</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>353.402572307464</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>88.99645009849506</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>88.99645009849506</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L23" t="n">
-        <v>915.8614157102541</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M23" t="n">
-        <v>1920.147517129312</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N23" t="n">
-        <v>2896.398575616013</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O23" t="n">
-        <v>3741.543225766825</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P23" t="n">
-        <v>4449.822504924753</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q23" t="n">
-        <v>4449.822504924753</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>4092.333090051003</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>3695.94174035135</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X23" t="n">
-        <v>3284.221741519097</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y23" t="n">
-        <v>2878.884471473988</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8559602093879</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>717.3408867777275</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L24" t="n">
-        <v>717.3408867777275</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M24" t="n">
-        <v>717.3408867777275</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N24" t="n">
-        <v>717.3408867777275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O24" t="n">
-        <v>717.3408867777275</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P24" t="n">
-        <v>1433.538603816226</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.1141289609856</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C25" t="n">
-        <v>188.1415658399016</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="D25" t="n">
-        <v>188.1415658399016</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E25" t="n">
-        <v>188.1415658399016</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F25" t="n">
-        <v>88.99645009849506</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G25" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H25" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I25" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>146.4877783226531</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>373.0153795284903</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>727.704700822911</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1118.890495793162</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1496.382006669198</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1851.810135348961</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2142.409347270861</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2269.409477511623</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2269.409477511623</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2099.274430030758</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>1855.935082256658</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1575.750633756962</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1294.039166364991</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>1019.186762537504</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X25" t="n">
-        <v>776.6228659833092</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.2800976730513</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1745.792697513689</v>
+        <v>1195.874332975103</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.891967526989</v>
+        <v>1195.874332975103</v>
       </c>
       <c r="D26" t="n">
-        <v>895.5993467119897</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E26" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
@@ -6230,46 +6232,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M26" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N26" t="n">
-        <v>1508.432753835019</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O26" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462377</v>
+        <v>1607.594331807356</v>
       </c>
       <c r="X26" t="n">
-        <v>2165.64106180522</v>
+        <v>1195.874332975103</v>
       </c>
       <c r="Y26" t="n">
-        <v>2165.64106180522</v>
+        <v>1195.874332975103</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C27" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L27" t="n">
-        <v>416.2236218818665</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M27" t="n">
-        <v>966.8891568663047</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.554691850743</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>2068.220226835181</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S27" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T27" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U27" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V27" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W27" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X27" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y27" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>388.3325623957711</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C28" t="n">
-        <v>216.3599992746871</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D28" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E28" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6409,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1884.153515691443</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U28" t="n">
-        <v>1603.969067191748</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.257599799776</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W28" t="n">
-        <v>1047.405195972289</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X28" t="n">
-        <v>804.8412994180946</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>578.4985311078367</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.792697513689</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.891967526989</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M29" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O29" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X29" t="n">
-        <v>2165.64106180522</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="Y29" t="n">
-        <v>2165.64106180522</v>
+        <v>1145.737622806746</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N30" t="n">
+        <v>595.1637600336855</v>
+      </c>
+      <c r="O30" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="O30" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7123380797763</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="C31" t="n">
-        <v>266.7397749586924</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="D31" t="n">
-        <v>266.7397749586924</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="E31" t="n">
-        <v>266.7397749586924</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F31" t="n">
-        <v>266.7397749586924</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G31" t="n">
-        <v>266.7397749586924</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6628,7 +6630,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M31" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N31" t="n">
         <v>1451.88378161995</v>
@@ -6646,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.784971656295</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X31" t="n">
-        <v>855.2210751020999</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y31" t="n">
-        <v>628.878306791842</v>
+        <v>626.1818057320245</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2150.131759924241</v>
+        <v>929.588447107476</v>
       </c>
       <c r="C32" t="n">
-        <v>1723.231029937541</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.938409122541</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E32" t="n">
-        <v>873.9614692703988</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F32" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>572.914647509062</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L32" t="n">
-        <v>572.914647509062</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M32" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N32" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="X32" t="n">
-        <v>2150.131759924241</v>
+        <v>1754.774081444116</v>
       </c>
       <c r="Y32" t="n">
-        <v>2150.131759924241</v>
+        <v>1349.436811399006</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K33" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L33" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M33" t="n">
-        <v>1389.040378766978</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N33" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O33" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6883,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2118.947862113333</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1318.891967526989</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>564.7129984784835</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>564.7129984784835</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>139.5888166678837</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M35" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>2144.077601863629</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y35" t="n">
-        <v>1738.74033181852</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L36" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M36" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N36" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7132,13 +7134,13 @@
         <v>1202.502328002917</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7067844524004</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X37" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="Y37" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008307</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.9256988112818</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C38" t="n">
-        <v>470.47516490139</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>595.1637600336857</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M38" t="n">
-        <v>595.1637600336857</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N38" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O38" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P38" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V38" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W38" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X38" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="Y38" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335516</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M39" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N39" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>485.7509513926031</v>
+        <v>648.5937430873254</v>
       </c>
       <c r="C40" t="n">
-        <v>313.7783882715191</v>
+        <v>648.5937430873254</v>
       </c>
       <c r="D40" t="n">
-        <v>150.4616153982898</v>
+        <v>648.5937430873254</v>
       </c>
       <c r="E40" t="n">
-        <v>44.49822504924753</v>
+        <v>482.3855372401789</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924753</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7339,7 +7341,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
         <v>1451.88378161995</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.571904688275</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>1701.38745618858</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>1419.675988796609</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.823584969122</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X40" t="n">
-        <v>902.2596884149267</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.9169201046687</v>
+        <v>648.5937430873254</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1059.31048905672</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C41" t="n">
-        <v>1059.31048905672</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D41" t="n">
-        <v>1059.31048905672</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E41" t="n">
-        <v>633.3335492045777</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F41" t="n">
-        <v>633.3335492045777</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G41" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L41" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M41" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N41" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O41" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V41" t="n">
-        <v>1867.421837588626</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W41" t="n">
-        <v>1471.030487888973</v>
+        <v>1724.152608635863</v>
       </c>
       <c r="X41" t="n">
-        <v>1059.31048905672</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y41" t="n">
-        <v>1059.31048905672</v>
+        <v>907.0953397585009</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>388.3325623957711</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C43" t="n">
-        <v>216.3599992746871</v>
+        <v>837.302184545315</v>
       </c>
       <c r="D43" t="n">
-        <v>216.3599992746871</v>
+        <v>673.9854116720857</v>
       </c>
       <c r="E43" t="n">
-        <v>216.3599992746871</v>
+        <v>507.7772058249392</v>
       </c>
       <c r="F43" t="n">
-        <v>44.49822504924753</v>
+        <v>335.9154315994996</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924753</v>
+        <v>169.6584618937317</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7594,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>1884.153515691443</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U43" t="n">
-        <v>1603.969067191748</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.257599799776</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W43" t="n">
-        <v>1047.405195972289</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X43" t="n">
-        <v>804.8412994180946</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y43" t="n">
-        <v>578.4985311078367</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1199.993244506014</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C44" t="n">
-        <v>1199.993244506014</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D44" t="n">
-        <v>1199.993244506014</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E44" t="n">
-        <v>774.0163046538721</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F44" t="n">
-        <v>774.0163046538721</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>369.6772422433207</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M44" t="n">
-        <v>1271.957808655251</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N44" t="n">
-        <v>1271.957808655251</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>2164.278610007865</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555523</v>
+        <v>1905.923700604277</v>
       </c>
       <c r="V44" t="n">
-        <v>1199.993244506014</v>
+        <v>1548.434285730527</v>
       </c>
       <c r="W44" t="n">
-        <v>1199.993244506014</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="X44" t="n">
-        <v>1199.993244506014</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y44" t="n">
-        <v>1199.993244506014</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>765.3953884431487</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>1222.18129514588</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>1678.967201848611</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1763.580312956634</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1763.580312956634</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.228765334056</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>200.228765334056</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.425962247645</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1385.086614473545</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1104.902165973849</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>823.1906985818782</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>616.7375023563797</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>616.7375023563797</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>390.3947340461217</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830989</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8064,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>267.010789576021</v>
       </c>
       <c r="O3" t="n">
-        <v>185.9918631203543</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464867</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434622</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>267.010789576021</v>
       </c>
       <c r="O6" t="n">
-        <v>185.9918631203543</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961657</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O8" t="n">
-        <v>110.4525178970659</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>177.0689530252726</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P12" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8930,16 +8932,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
-        <v>571.0335849150666</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847015</v>
       </c>
       <c r="P15" t="n">
-        <v>371.4608596749573</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N17" t="n">
-        <v>547.8252218830994</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.4370567591071</v>
+        <v>98.17301358442536</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9398,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>294.2489196134111</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>689.367762903477</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N20" t="n">
-        <v>688.3353433053002</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O20" t="n">
-        <v>688.4466798268782</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>133.7150268590404</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>672.8265616756828</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591073</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L23" t="n">
-        <v>873.5291794141976</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>181.7107419310189</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>58.85304373827564</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9878,25 +9880,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>300.4142109955939</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
-        <v>180.044604464622</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10112,25 +10114,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P29" t="n">
-        <v>110.6369203512731</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P30" t="n">
-        <v>180.0446044646217</v>
+        <v>184.5908146029612</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,19 +10351,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10428,16 +10430,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>550.5504466271776</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>379.9589183367962</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>571.1449214366446</v>
+        <v>110.4525178970657</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104035</v>
+        <v>203.2524428583635</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>110.4525178970659</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>463.1564485244919</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L41" t="n">
-        <v>548.8576414812763</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>180.7888499740228</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>572.0660045132432</v>
       </c>
       <c r="M44" t="n">
-        <v>457.2862635810462</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L45" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>106.8108172115448</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>186.688697710095</v>
+        <v>246.3582550756286</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>86.27030149724416</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.842385773669</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22835,7 +22837,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>13.62230813447783</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22996,19 +22998,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>230.0087579140022</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.4992781335012</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>300.0465331945459</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>106.2907114894255</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
     </row>
     <row r="11">
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.183399765781</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.6064085940732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>71.98949189919175</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>146.768685346664</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23513,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>168.7638499723162</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6172179931334369</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -23795,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>348.9253100933448</v>
+        <v>36.59905063032136</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>86.02262841516104</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>300.0465331945454</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>382.2010645737101</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24029,7 +24031,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.7088052046619</v>
       </c>
     </row>
     <row r="23">
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>348.925310093345</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>33.12763375382633</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24263,16 +24265,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>113.0089626044163</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,10 +24375,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.98949189919269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.930616831367558</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -24503,10 +24505,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>60.37920528368517</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24847,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>21.11005397370357</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>165.7641609568367</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>45.49062072144356</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -24980,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>333.5711012311757</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>306.155986083996</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -25217,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>327.5774847511705</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167420088</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>26.78536087879982</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44.64613243500588</v>
       </c>
       <c r="C38" t="n">
-        <v>33.11569411604</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25442,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>59.64236734312311</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>187.9519789385845</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>256.8641036136053</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25634,13 +25636,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>112.2383956133745</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -25685,7 +25687,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>117.2205539080146</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>158.6899992158474</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>292.5755027159998</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>67.71521552596852</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>483432.9604421562</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421558</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483432.9604421562</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525235.6016526668</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>728632.8425387687</v>
+        <v>483432.960442156</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483432.9604421562</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483432.9604421562</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>483432.9604421562</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483432.9604421562</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429026.5078113907</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
   </sheetData>
@@ -26326,22 +26328,22 @@
         <v>144000.362781502</v>
       </c>
       <c r="G2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="H2" t="n">
-        <v>156450.078254601</v>
+        <v>144000.362781502</v>
       </c>
       <c r="I2" t="n">
-        <v>217026.1017717143</v>
+        <v>144000.362781502</v>
       </c>
       <c r="J2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="K2" t="n">
         <v>144000.3627815021</v>
       </c>
       <c r="L2" t="n">
-        <v>144000.362781502</v>
+        <v>144000.3627815021</v>
       </c>
       <c r="M2" t="n">
         <v>144000.362781502</v>
@@ -26353,7 +26355,7 @@
         <v>144000.362781502</v>
       </c>
       <c r="P2" t="n">
-        <v>127796.9642511872</v>
+        <v>144000.362781502</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348164</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="C4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="D4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="E4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715248</v>
       </c>
       <c r="F4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="G4" t="n">
         <v>34949.1061971525</v>
       </c>
       <c r="H4" t="n">
-        <v>37982.76091550549</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="I4" t="n">
-        <v>52743.47893824505</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="J4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="K4" t="n">
         <v>34949.1061971525</v>
@@ -26448,16 +26450,16 @@
         <v>34949.1061971525</v>
       </c>
       <c r="M4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715248</v>
       </c>
       <c r="N4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="O4" t="n">
         <v>34949.10619715249</v>
       </c>
       <c r="P4" t="n">
-        <v>31000.78171447197</v>
+        <v>34949.10619715249</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>39584.18780462793</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>67637.30207485624</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144799.7278678159</v>
+        <v>-144799.7278678157</v>
       </c>
       <c r="C6" t="n">
-        <v>41605.00554692141</v>
+        <v>41605.00554692143</v>
       </c>
       <c r="D6" t="n">
-        <v>41605.0055469214</v>
+        <v>41605.00554692146</v>
       </c>
       <c r="E6" t="n">
-        <v>75232.60554692142</v>
+        <v>75232.60554692143</v>
       </c>
       <c r="F6" t="n">
+        <v>75232.60554692145</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75232.6055469214</v>
+      </c>
+      <c r="H6" t="n">
         <v>75232.60554692143</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>75232.6055469214</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-70301.06438789499</v>
+      </c>
+      <c r="K6" t="n">
         <v>75232.60554692146</v>
       </c>
-      <c r="H6" t="n">
-        <v>53297.70667885229</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-26050.60358108077</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>75232.60554692146</v>
-      </c>
-      <c r="K6" t="n">
-        <v>75232.60554692149</v>
-      </c>
-      <c r="L6" t="n">
-        <v>75232.6055469214</v>
       </c>
       <c r="M6" t="n">
         <v>75232.60554692143</v>
       </c>
       <c r="N6" t="n">
-        <v>75232.60554692138</v>
+        <v>75232.6055469214</v>
       </c>
       <c r="O6" t="n">
-        <v>75232.60554692138</v>
+        <v>75232.6055469214</v>
       </c>
       <c r="P6" t="n">
-        <v>68743.06826648689</v>
+        <v>75232.60554692143</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="H4" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="I4" t="n">
-        <v>1112.455626231188</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>556.2278131155938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="O3" t="n">
-        <v>162.8199733981321</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937746</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="O6" t="n">
-        <v>162.8199733981321</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977413</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O8" t="n">
-        <v>73.06155854104179</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>155.2981118204439</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P12" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="P15" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.06155854104186</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N17" t="n">
-        <v>510.5455990486533</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>349.6900184701286</v>
+        <v>75.42597529544686</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4843188186018</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O20" t="n">
-        <v>651.0557204708541</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>110.6182463467125</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701288</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L23" t="n">
-        <v>835.2171369815748</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.2419294049423</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>263.0232516395698</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
-        <v>158.2737632597933</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P29" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P30" t="n">
-        <v>158.2737632597931</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>533.7539620806207</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>527.4536661148496</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>533.7539620806206</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635541</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>73.06155854104179</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L41" t="n">
-        <v>510.5455990486534</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="M44" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287095.224552737</v>
+        <v>281934.8320070878</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18601640.52608542</v>
+        <v>18601640.52608541</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9135685.687344903</v>
+        <v>9135685.687344898</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5589994.749742932</v>
+        <v>5589994.749742933</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>11.20296397782709</v>
       </c>
       <c r="D2" t="n">
-        <v>172.701439531221</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>218.775754413495</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>344.8041277979185</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>205.0940071113353</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.5800624936542</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>119.0131614123038</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>371.0037482136093</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>43.70950697100992</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1347,19 +1347,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>164.7047943182444</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>336.4558456696458</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>15.68954022671276</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1612,22 +1612,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>49.95246527349702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>172.3622069913488</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10.02877608965449</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1849,10 +1849,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>402.8939170854914</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>371.0037482136088</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>78.57177159354914</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>119.0131614123042</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>117.7395304238327</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.3705354224935</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>71.94762989914871</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24387488545689</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>410.1290777754821</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>53.52449335348103</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>127.1292949842367</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>360.4937347088086</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>203.0845722362934</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.465160544963129</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.31517967031871</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>62.53345854974148</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.83300046414744</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3195,10 +3195,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.465160544963129</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>94.13968570244987</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>277.5987842173589</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>55.58269162836333</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>213.3528967098531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>371.0037482136088</v>
+        <v>383.6653722798869</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.12736168857082</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.7857770350095</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>229.8480119733962</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>25.13775189891257</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>32.17666801130665</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>60.0263160299658</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.87597792716577</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>645.8448535523323</v>
+        <v>55.8143502793759</v>
       </c>
       <c r="C2" t="n">
-        <v>218.9441235656324</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588625</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888972</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>1471.030487888972</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y2" t="n">
-        <v>1065.693217843862</v>
+        <v>475.662714570906</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>287.709308798102</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924752</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924752</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1192.559954376912</v>
+        <v>816.0778436399225</v>
       </c>
       <c r="C5" t="n">
-        <v>765.6592243902124</v>
+        <v>816.0778436399225</v>
       </c>
       <c r="D5" t="n">
-        <v>342.3666035752127</v>
+        <v>392.7852228249228</v>
       </c>
       <c r="E5" t="n">
-        <v>342.3666035752127</v>
+        <v>392.7852228249228</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3666035752127</v>
+        <v>392.7852228249228</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074139</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091852</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091852</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091852</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2017.745588713552</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2017.745588713552</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2017.745588713552</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2017.745588713552</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>2017.745588713552</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y5" t="n">
-        <v>1612.408318668442</v>
+        <v>1235.926207931453</v>
       </c>
     </row>
     <row r="6">
@@ -4628,40 +4628,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M6" t="n">
-        <v>44.49822504924752</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>287.709308798102</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>838.37484378254</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4737,40 +4737,40 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1944.72680396268</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1663.015336570709</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1663.015336570709</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>1420.451440016514</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.61426959383</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C8" t="n">
-        <v>164.7135396071301</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>44.49822504924752</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>957.767218850581</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091852</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762722</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.79990393047</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.46263388536</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="9">
@@ -4865,40 +4865,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955973</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>1153.275937980035</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1153.275937980035</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1153.275937980035</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1153.275937980035</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>595.8003524114347</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>423.8277892903507</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>260.5110164171214</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>260.5110164171214</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>88.64924219168179</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>88.64924219168179</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>88.64924219168179</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4977,37 +4977,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>1529.72538981544</v>
       </c>
       <c r="W10" t="n">
-        <v>1484.213795394888</v>
+        <v>1254.872985987953</v>
       </c>
       <c r="X10" t="n">
-        <v>1484.213795394888</v>
+        <v>1012.309089433758</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>785.9663211235003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>487.2469754669704</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C11" t="n">
-        <v>60.34624548027051</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D11" t="n">
-        <v>60.34624548027051</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E11" t="n">
-        <v>60.34624548027051</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N11" t="n">
-        <v>1696.494830002561</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U11" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V11" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W11" t="n">
-        <v>1724.152608635863</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X11" t="n">
-        <v>1312.43260980361</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y11" t="n">
-        <v>907.0953397585005</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336854</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M12" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N12" t="n">
-        <v>1696.494830002561</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5226,25 +5226,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1357.396947955218</v>
+        <v>1192.559954376912</v>
       </c>
       <c r="C14" t="n">
-        <v>930.4962179685185</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D14" t="n">
-        <v>930.4962179685185</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E14" t="n">
-        <v>504.5192781163761</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F14" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G14" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L14" t="n">
-        <v>572.9146475090618</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2174.454216832581</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>2174.454216832581</v>
+        <v>1946.440718950316</v>
       </c>
       <c r="V14" t="n">
-        <v>2174.454216832581</v>
+        <v>1588.951304076566</v>
       </c>
       <c r="W14" t="n">
-        <v>2174.454216832581</v>
+        <v>1192.559954376912</v>
       </c>
       <c r="X14" t="n">
-        <v>1762.734218000328</v>
+        <v>1192.559954376912</v>
       </c>
       <c r="Y14" t="n">
-        <v>1357.396947955218</v>
+        <v>1192.559954376912</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>595.1637600336854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O15" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>2044.646128123274</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.461679623578</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1482.750212231607</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1207.89780840412</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>965.333911849925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>738.9911435396671</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>1303.486689458155</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>876.5859594714548</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E17" t="n">
         <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L17" t="n">
-        <v>116.829168004879</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M17" t="n">
-        <v>667.494702989317</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N17" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O17" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X17" t="n">
-        <v>1745.792697513689</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y17" t="n">
-        <v>1745.792697513689</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924752</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336855</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O18" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1040.787803719786</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8152405987023</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D19" t="n">
-        <v>705.498467725473</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E19" t="n">
-        <v>539.2902618783265</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>367.4284876528869</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5682,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5703,22 +5703,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T19" t="n">
-        <v>1981.571904688276</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U19" t="n">
-        <v>1981.571904688276</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.860437296305</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W19" t="n">
-        <v>1699.860437296305</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X19" t="n">
-        <v>1457.29654074211</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y19" t="n">
-        <v>1230.953772431852</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>591.6142695938305</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C20" t="n">
-        <v>164.7135396071306</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D20" t="n">
-        <v>44.49822504924752</v>
+        <v>1049.425036578451</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924752</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>198.3239149157083</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M20" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N20" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W20" t="n">
-        <v>1828.519902762723</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X20" t="n">
-        <v>1416.79990393047</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y20" t="n">
-        <v>1011.462633885361</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>323.6423572907505</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M21" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N21" t="n">
         <v>1424.973427259627</v>
@@ -5849,10 +5849,10 @@
         <v>1424.973427259627</v>
       </c>
       <c r="P21" t="n">
-        <v>1424.973427259627</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.72680396268</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1944.72680396268</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1669.874400135193</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.310503580998</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1393.342889338593</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C23" t="n">
-        <v>966.4421593518935</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D23" t="n">
-        <v>543.1495385368937</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E23" t="n">
-        <v>117.1725986847513</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L23" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M23" t="n">
-        <v>1100.603903091852</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N23" t="n">
-        <v>1100.603903091852</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O23" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462376</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.191253630123</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y23" t="n">
-        <v>1813.191253630123</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M24" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N24" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.5772905989112</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>210.7551947550154</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>210.7551947550154</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>210.7551947550154</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1195.874332975103</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="C26" t="n">
-        <v>1195.874332975103</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D26" t="n">
-        <v>781.6025372422928</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E26" t="n">
-        <v>781.6025372422928</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F26" t="n">
-        <v>781.6025372422928</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G26" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L26" t="n">
-        <v>957.767218850581</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M26" t="n">
-        <v>957.767218850581</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N26" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O26" t="n">
-        <v>1100.603903091852</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.26943807629</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V26" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W26" t="n">
-        <v>1607.594331807356</v>
+        <v>2170.846107660881</v>
       </c>
       <c r="X26" t="n">
-        <v>1195.874332975103</v>
+        <v>1759.126108828628</v>
       </c>
       <c r="Y26" t="n">
-        <v>1195.874332975103</v>
+        <v>1353.788838783518</v>
       </c>
     </row>
     <row r="27">
@@ -6287,40 +6287,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>201.1892506764434</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M27" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>511.1411871531062</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>172.9116543262543</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>701.3071558651718</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1145.737622806746</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="C29" t="n">
-        <v>1145.737622806746</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="D29" t="n">
-        <v>1145.737622806746</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="E29" t="n">
-        <v>1145.737622806746</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="F29" t="n">
-        <v>781.6025372422929</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="G29" t="n">
-        <v>377.2634748317415</v>
+        <v>249.6341566010591</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U29" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V29" t="n">
-        <v>1542.128972506399</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W29" t="n">
-        <v>1145.737622806746</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X29" t="n">
-        <v>1145.737622806746</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y29" t="n">
-        <v>1145.737622806746</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336855</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N30" t="n">
-        <v>595.1637600336855</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O30" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P30" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>626.1818057320245</v>
+        <v>558.1798004659329</v>
       </c>
       <c r="C31" t="n">
-        <v>626.1818057320245</v>
+        <v>386.2072373448489</v>
       </c>
       <c r="D31" t="n">
-        <v>626.1818057320245</v>
+        <v>222.8904644716196</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6630,7 +6630,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M31" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N31" t="n">
         <v>1451.88378161995</v>
@@ -6645,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754302</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212353</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="Y31" t="n">
-        <v>626.1818057320245</v>
+        <v>748.3457691779986</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>929.588447107476</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C32" t="n">
-        <v>502.687717120776</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D32" t="n">
-        <v>79.39509630577632</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E32" t="n">
-        <v>79.39509630577632</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F32" t="n">
-        <v>79.39509630577632</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G32" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N32" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O32" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2166.494080276369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2166.494080276369</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U32" t="n">
-        <v>2166.494080276369</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V32" t="n">
-        <v>2166.494080276369</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W32" t="n">
-        <v>2166.494080276369</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X32" t="n">
-        <v>1754.774081444116</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.436811399006</v>
+        <v>844.7676468884964</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>866.8612493132766</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N33" t="n">
-        <v>1417.526784297715</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O33" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.7875610435608</v>
+        <v>558.1798004659329</v>
       </c>
       <c r="C34" t="n">
-        <v>207.8149979224768</v>
+        <v>386.2072373448489</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924752</v>
+        <v>222.8904644716196</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2118.947862113333</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>1875.608514339233</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U34" t="n">
-        <v>1595.424065839537</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
-        <v>1313.712598447566</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>1038.860194620079</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X34" t="n">
-        <v>796.2962980658845</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="Y34" t="n">
-        <v>569.9535297556265</v>
+        <v>748.3457691779986</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>988.0056192934833</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="C35" t="n">
-        <v>988.0056192934833</v>
+        <v>785.7748484986853</v>
       </c>
       <c r="D35" t="n">
-        <v>564.7129984784835</v>
+        <v>785.7748484986853</v>
       </c>
       <c r="E35" t="n">
-        <v>564.7129984784835</v>
+        <v>359.7979086465429</v>
       </c>
       <c r="F35" t="n">
-        <v>139.5888166678837</v>
+        <v>359.7979086465429</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924752</v>
+        <v>359.7979086465429</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002561</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O35" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.191253630123</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y35" t="n">
-        <v>1407.853983585013</v>
+        <v>1212.675578485385</v>
       </c>
     </row>
     <row r="36">
@@ -6998,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
         <v>1307.021068682275</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>712.1419477008307</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C37" t="n">
-        <v>712.1419477008307</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="D37" t="n">
-        <v>548.8251748276014</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E37" t="n">
-        <v>382.6169689804549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7122,25 +7122,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754298</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X37" t="n">
-        <v>712.1419477008307</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.1419477008307</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1745.792697513689</v>
+        <v>1336.61182855517</v>
       </c>
       <c r="C38" t="n">
-        <v>1318.891967526989</v>
+        <v>909.7110985684701</v>
       </c>
       <c r="D38" t="n">
-        <v>895.5993467119897</v>
+        <v>909.7110985684701</v>
       </c>
       <c r="E38" t="n">
-        <v>469.6224068598473</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K38" t="n">
-        <v>572.9146475090616</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L38" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M38" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W38" t="n">
-        <v>2120.543958335516</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X38" t="n">
-        <v>2120.543958335516</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="Y38" t="n">
-        <v>2120.543958335516</v>
+        <v>1724.152608635864</v>
       </c>
     </row>
     <row r="39">
@@ -7241,16 +7241,16 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
         <v>323.6423572907505</v>
@@ -7265,16 +7265,16 @@
         <v>874.3078922751886</v>
       </c>
       <c r="N39" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O39" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P39" t="n">
-        <v>1307.021068682275</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>648.5937430873254</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>648.5937430873254</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>648.5937430873254</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>482.3855372401789</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7341,7 +7341,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
         <v>1451.88378161995</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>648.5937430873254</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>746.7056659857641</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="C41" t="n">
-        <v>746.7056659857641</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="D41" t="n">
-        <v>746.7056659857641</v>
+        <v>1438.896428116929</v>
       </c>
       <c r="E41" t="n">
-        <v>746.7056659857641</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F41" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G41" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M41" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N41" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O41" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U41" t="n">
-        <v>2120.543958335516</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V41" t="n">
-        <v>2120.543958335516</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W41" t="n">
-        <v>1724.152608635863</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X41" t="n">
-        <v>1312.432609803611</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="Y41" t="n">
-        <v>907.0953397585009</v>
+        <v>1862.189048931929</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N42" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O42" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P42" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.274747666399</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>837.302184545315</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>673.9854116720857</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>507.7772058249392</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>335.9154315994996</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>169.6584618937317</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7596,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1943.199785070404</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1668.347381242917</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.783484688723</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>1199.440716378465</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.7056659857641</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C44" t="n">
-        <v>746.7056659857641</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D44" t="n">
-        <v>746.7056659857641</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E44" t="n">
-        <v>746.7056659857641</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F44" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462376</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>2164.278610007865</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U44" t="n">
-        <v>1905.923700604277</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V44" t="n">
-        <v>1548.434285730527</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W44" t="n">
-        <v>1152.042936030874</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X44" t="n">
-        <v>1152.042936030874</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y44" t="n">
-        <v>746.7056659857641</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="45">
@@ -7715,16 +7715,16 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
@@ -7745,10 +7745,10 @@
         <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7794,16 +7794,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7830,7 +7830,7 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
         <v>2127.492863465543</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830989</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8069,19 +8069,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>267.010789576021</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464867</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>546.3101998434622</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>267.010789576021</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876108</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,10 +8546,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>177.0689530252726</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8625,13 +8625,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1449214366444</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>181.445652982016</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>572.0660045132433</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>268.8396510847015</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,28 +9166,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>111.3736009736648</v>
+        <v>548.8576414812763</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M18" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.17301358442536</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>571.1449214366446</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9482,28 +9482,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.4370567591073</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104033</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L23" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>181.7107419310189</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>180.0446044646222</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
-        <v>181.6704383876108</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>180.7888499740234</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366446</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378162</v>
+        <v>261.3177895070124</v>
       </c>
       <c r="P30" t="n">
-        <v>184.5908146029612</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>571.1449214366446</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>379.9589183367962</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>110.4525178970657</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>458.8548577776432</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>203.2524428583635</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>458.854857777643</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
@@ -11074,16 +11074,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
-        <v>452.5855512828693</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11147,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P42" t="n">
-        <v>458.854857777643</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>572.0660045132432</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716181</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>458.854857777643</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>411.4287587090058</v>
       </c>
       <c r="D2" t="n">
-        <v>246.3582550756286</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.32812537571712</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>55.49154398852733</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.62230813447783</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>68.15019490184558</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.4992781335012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>300.0465331945459</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -23083,13 +23083,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>30.28014913104926</v>
       </c>
     </row>
     <row r="9">
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>55.06137560611687</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>79.19403497896894</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.183399765781</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>168.7638499723162</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>83.40915331820301</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>230.8771782067045</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>16.16577752135834</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>36.59905063032136</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>86.02262841516104</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>300.0465331945454</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>282.5561413626132</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.7088052046619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>348.925310093345</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24259,22 +24259,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>113.0089626044163</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,10 +24375,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>8.930616831367558</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -24505,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>338.9029428491755</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.22901082269043</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>60.37920528368517</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>91.80512250441211</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>158.0809632437118</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.7641609568367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>353.1164220988733</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24931,10 +24931,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.49062072144356</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>158.0809632437118</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>306.155986083996</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>17.29091052334667</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>106.1009135161337</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>26.78536087879982</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44.64613243500588</v>
+        <v>31.98450836872786</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.9519789385845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>256.8641036136053</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>191.8691584802248</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>117.2205539080146</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>383.4732126373081</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>158.6899992158474</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>118.5577190788907</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483432.9604421558</v>
+        <v>483432.9604421561</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>483432.960442156</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.960442156</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>483432.9604421561</v>
+        <v>483432.9604421562</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>144000.362781502</v>
       </c>
       <c r="C2" t="n">
-        <v>144000.362781502</v>
+        <v>144000.3627815021</v>
       </c>
       <c r="D2" t="n">
         <v>144000.362781502</v>
@@ -26340,10 +26340,10 @@
         <v>144000.362781502</v>
       </c>
       <c r="K2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="L2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="M2" t="n">
         <v>144000.362781502</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348164</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>34949.10619715251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34949.10619715251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34949.1061971525</v>
+      </c>
+      <c r="E4" t="n">
         <v>34949.10619715249</v>
       </c>
-      <c r="C4" t="n">
-        <v>34949.10619715249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34949.10619715249</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34949.10619715248</v>
-      </c>
       <c r="F4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="G4" t="n">
         <v>34949.1061971525</v>
@@ -26438,10 +26438,10 @@
         <v>34949.1061971525</v>
       </c>
       <c r="I4" t="n">
+        <v>34949.10619715251</v>
+      </c>
+      <c r="J4" t="n">
         <v>34949.1061971525</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34949.10619715249</v>
       </c>
       <c r="K4" t="n">
         <v>34949.1061971525</v>
@@ -26450,16 +26450,16 @@
         <v>34949.1061971525</v>
       </c>
       <c r="M4" t="n">
-        <v>34949.10619715248</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="N4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="O4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="P4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144799.7278678157</v>
+        <v>-145408.7735803055</v>
       </c>
       <c r="C6" t="n">
-        <v>41605.00554692143</v>
+        <v>40995.95983443178</v>
       </c>
       <c r="D6" t="n">
-        <v>41605.00554692146</v>
+        <v>40995.95983443176</v>
       </c>
       <c r="E6" t="n">
-        <v>75232.60554692143</v>
+        <v>74623.55983443174</v>
       </c>
       <c r="F6" t="n">
-        <v>75232.60554692145</v>
+        <v>74623.55983443171</v>
       </c>
       <c r="G6" t="n">
-        <v>75232.6055469214</v>
+        <v>74623.55983443174</v>
       </c>
       <c r="H6" t="n">
-        <v>75232.60554692143</v>
+        <v>74623.55983443174</v>
       </c>
       <c r="I6" t="n">
-        <v>75232.6055469214</v>
+        <v>74623.5598344317</v>
       </c>
       <c r="J6" t="n">
-        <v>-70301.06438789499</v>
+        <v>-70910.11010038474</v>
       </c>
       <c r="K6" t="n">
-        <v>75232.60554692146</v>
+        <v>74623.55983443174</v>
       </c>
       <c r="L6" t="n">
-        <v>75232.60554692146</v>
+        <v>74623.55983443171</v>
       </c>
       <c r="M6" t="n">
-        <v>75232.60554692143</v>
+        <v>74623.55983443171</v>
       </c>
       <c r="N6" t="n">
-        <v>75232.6055469214</v>
+        <v>74623.55983443173</v>
       </c>
       <c r="O6" t="n">
-        <v>75232.6055469214</v>
+        <v>74623.55983443173</v>
       </c>
       <c r="P6" t="n">
-        <v>75232.60554692143</v>
+        <v>74623.55983443174</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486529</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>245.6677613624793</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937746</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>245.6677613624793</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>144.2794790315867</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>155.2981118204439</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35345,13 +35345,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>533.7539620806203</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>245.6677613624792</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>73.06155854104186</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="M17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.42597529544686</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>533.7539620806206</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q21" t="n">
-        <v>349.6900184701288</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>144.2794790315871</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>158.2737632597935</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>158.2737632597938</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806206</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O30" t="n">
-        <v>556.227813115594</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="P30" t="n">
-        <v>162.8199733981326</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>533.7539620806206</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>357.2118800478177</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>73.06155854104156</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>437.0840165728146</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>167.4878420635541</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L38" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
-        <v>415.010189472638</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P42" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>556.227813115594</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>437.0840165728143</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
